--- a/Répartition Taches.xlsx
+++ b/Répartition Taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Divers" sheetId="2" r:id="rId1"/>
@@ -1019,9 +1019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1687,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,7 +1695,7 @@
         <v>81</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Répartition Taches.xlsx
+++ b/Répartition Taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Divers" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="147">
   <si>
     <t>main</t>
   </si>
@@ -840,9 +840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,6 +924,9 @@
       <c r="B7" s="8" t="s">
         <v>129</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1019,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>

--- a/Répartition Taches.xlsx
+++ b/Répartition Taches.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="154">
   <si>
     <t>main</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Créateur</t>
   </si>
   <si>
-    <t>Vérification</t>
-  </si>
-  <si>
     <t>int supprimerUnCours(listeCours &amp;lC,listeRessources &amp;lR)</t>
   </si>
   <si>
@@ -462,6 +459,30 @@
   </si>
   <si>
     <t>Olivier + Adrien</t>
+  </si>
+  <si>
+    <t>bool operator!=(const ressource &amp; r) const</t>
+  </si>
+  <si>
+    <t>//par ressource</t>
+  </si>
+  <si>
+    <t>//conditions multiples</t>
+  </si>
+  <si>
+    <t>void afficherParRessources(const std::vector&lt;ressource&gt; &amp;r, const listeCours &amp;lC)</t>
+  </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>int afficherCoursDuProf(const listeRessources &amp;lR,const listeCours&amp; lC)</t>
+  </si>
+  <si>
+    <t>int afficherCoursDeSalle(const listeRessources &amp;lR,const listeCours&amp; lC)</t>
+  </si>
+  <si>
+    <t>int afficherCoursDeFormation(const listeRessources &amp;lR,const listeCours&amp; lC)</t>
   </si>
 </sst>
 </file>
@@ -842,7 +863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>9</v>
@@ -870,147 +891,150 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1020,11 +1044,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1071,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1212,7 +1237,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>3</v>
@@ -1221,14 +1246,14 @@
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>9</v>
@@ -1236,7 +1261,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
@@ -1244,7 +1269,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
@@ -1252,7 +1277,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
@@ -1260,7 +1285,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>3</v>
@@ -1268,7 +1293,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>3</v>
@@ -1276,7 +1301,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>3</v>
@@ -1284,7 +1309,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>3</v>
@@ -1292,7 +1317,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>3</v>
@@ -1300,7 +1325,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>3</v>
@@ -1308,39 +1333,39 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>9</v>
@@ -1349,184 +1374,191 @@
     <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="C42" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>50</v>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>152</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D60" s="5"/>
     </row>
@@ -1535,85 +1567,78 @@
         <v>7</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>3</v>
@@ -1621,7 +1646,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>3</v>
@@ -1629,49 +1654,56 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="5"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>3</v>
@@ -1679,7 +1711,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>3</v>
@@ -1687,97 +1719,100 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>3</v>
-      </c>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="5"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>3</v>
@@ -1785,7 +1820,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>3</v>
@@ -1793,39 +1828,41 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>3</v>
@@ -1833,7 +1870,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>3</v>
@@ -1841,7 +1878,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>3</v>
@@ -1849,7 +1886,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>3</v>
@@ -1857,39 +1894,39 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>3</v>
@@ -1897,7 +1934,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>3</v>
@@ -1905,7 +1942,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>3</v>
@@ -1913,7 +1950,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>3</v>
@@ -1921,51 +1958,47 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>3</v>
@@ -1973,7 +2006,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>3</v>
@@ -1981,7 +2014,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>3</v>
@@ -1989,43 +2022,127 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="5"/>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C120" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2039,7 +2156,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,24 +2168,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2076,12 +2193,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2089,7 +2206,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2097,7 +2214,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2105,7 +2222,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -2113,7 +2230,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2121,7 +2238,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2129,20 +2246,20 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
